--- a/biology/Histoire de la zoologie et de la botanique/Pongidae/Pongidae.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pongidae/Pongidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les pongidés (Pongidae) sont un nom de famille de singes obsolète qui comprenait autrefois les chimpanzés, les gorilles, et les orang-outans[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pongidés (Pongidae) sont un nom de famille de singes obsolète qui comprenait autrefois les chimpanzés, les gorilles, et les orang-outans.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On plaçait autrefois les humains seuls dans leur propre famille, les Hominidae, et les plus grands singes, orang-outans (Pongo), gorilles (Gorilla) et chimpanzés (Pan), dans une famille commune dénommée les Pongidae. Les analyses génétiques modernes ont montré que l'arbre de divergence évolutive ne correspondait pas à ce schéma initial. On a donc réincorporé dans la famille des Hominidae les trois genres de plus grands singes, les Hominidae devenant ainsi le seul groupe frère des Hylobatidae. 
-Tous les plus grands singes sont aujourd'hui classés dans la famille des Hominidae aux côtés de l'Homme[2].
+Tous les plus grands singes sont aujourd'hui classés dans la famille des Hominidae aux côtés de l'Homme.
 Au sein des hominidés, les orang-outans sont placés dans la sous-famille des Ponginae, qui ne comprend que le seul genre subsistant Pongo, mais aussi plusieurs genres fossiles. 
 </t>
         </is>
